--- a/Datos/Anuario2024/081001_EstadisticaJuego.xlsx
+++ b/Datos/Anuario2024/081001_EstadisticaJuego.xlsx
@@ -1,190 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="227" r:id="rId1"/>
+    <sheet name="1" sheetId="228" r:id="rId2"/>
+    <sheet name="2" sheetId="229" r:id="rId3"/>
+    <sheet name="3" sheetId="241" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_R1_2" localSheetId="0">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="0">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_12" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_12" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_12" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_12">#REF!</definedName>
+    <definedName name="_R4_13" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_13" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_13" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_13">#REF!</definedName>
+    <definedName name="_R4_14" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_14" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_14" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_14">#REF!</definedName>
+    <definedName name="_R4_15" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_15" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_15" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_15">#REF!</definedName>
+    <definedName name="_R4_16" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_16" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_16" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_16">#REF!</definedName>
+    <definedName name="_R4_17" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_17" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_17" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_17">#REF!</definedName>
+    <definedName name="_R4_18" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_18" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_18" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_18">#REF!</definedName>
+    <definedName name="_R4_19" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_19" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_19" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_19">#REF!</definedName>
+    <definedName name="_R4_20" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_20" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_20" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_20">#REF!</definedName>
+    <definedName name="_R4_21" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_21" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_21" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_21">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="0">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="0">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="0">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="0">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="suma" localSheetId="0">#REF!</definedName>
+    <definedName name="suma" localSheetId="1">#REF!</definedName>
+    <definedName name="suma" localSheetId="2">#REF!</definedName>
     <definedName name="suma">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_12" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_13" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_14" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_15" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_16" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_17" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_18" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_19" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_20" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_21" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="0">#REF!</definedName>
-    <definedName name="suma" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_13" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_14" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_15" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_16" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_18" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_19" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_20" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="1">#REF!</definedName>
-    <definedName name="suma" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_13" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_15" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_16" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_18" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_19" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_20" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
-    <definedName name="suma" localSheetId="2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Visitantes</t>
+  </si>
+  <si>
+    <t>Bingo tradicional</t>
+  </si>
+  <si>
+    <t>Bingo electrónico</t>
+  </si>
+  <si>
+    <t>Número de salas</t>
+  </si>
+  <si>
+    <t>Número de máquinas</t>
+  </si>
+  <si>
+    <t>Tipo B o de premio programado</t>
+  </si>
+  <si>
+    <t>Tipo C o de azar</t>
+  </si>
+  <si>
+    <t>Recaudación</t>
+  </si>
+  <si>
+    <t>Importe tasa fiscal</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICAS DEL JUEGO</t>
+  </si>
+  <si>
+    <t>Nota: Los datos de recaudación expresados en euros.</t>
+  </si>
+  <si>
+    <t>Fuente: Subdirección General de Juego. Conselleria de Hacienda y Modelo Económico.</t>
+  </si>
+  <si>
+    <t>3. Número de máquinas recreativas e importe recaudado por la tasa fiscal. 2023</t>
+  </si>
+  <si>
+    <t>1. Recaudación en las salas de bingo. 2023</t>
+  </si>
+  <si>
+    <t>Fuente: Subdirección General de Juego. Conselleria de Hacienda y Modelo Económico. Agencia Tributaria Valenciana (bingo electrónico).</t>
+  </si>
+  <si>
+    <t>2. Personas visitantes y recaudación en los casinos. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Los datos de importe de la tasa fiscal expresados en euros.</t>
+  </si>
+  <si>
+    <t>Fuente: Agencia Tributaria Valenciana (ATV).</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -219,65 +287,66 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -346,7 +415,24 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFD7F2F2"/>
+      <color rgb="FF800000"/>
+      <color rgb="FF663300"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FFFFDCB9"/>
+      <color rgb="FF660000"/>
+      <color rgb="FFFFE397"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,407 +722,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="37.7109375" customWidth="1" style="17" min="1" max="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="17">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>ESTADÍSTICAS DEL JUEGO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.7109375" customWidth="1" style="17" min="1" max="1"/>
-    <col width="15.7109375" customWidth="1" style="17" min="2" max="3"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="17">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>1. Recaudación en las salas de bingo. 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="17"/>
-    <row r="3" ht="18.75" customHeight="1" s="17">
-      <c r="A3" s="22" t="n"/>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Número de salas</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="inlineStr">
-        <is>
-          <t>Recaudación</t>
-        </is>
-      </c>
-      <c r="D3" s="18" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="17">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>Bingo tradicional</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="n">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="12">
         <v>66344832</v>
       </c>
-      <c r="D4" s="18" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="17">
-      <c r="A5" s="26" t="inlineStr">
-        <is>
-          <t>Bingo electrónico</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="n">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="n">
-        <v>10272256.47</v>
-      </c>
-      <c r="D5" s="19" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="17">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Nota: Los datos de recaudación expresados en euros.</t>
-        </is>
-      </c>
-      <c r="D6" s="18" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="17">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>Fuente: Subdirección General de Juego. Conselleria de Hacienda y Modelo Económico. Agencia Tributaria Valenciana (bingo electrónico).</t>
-        </is>
-      </c>
-      <c r="D7" s="18" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="17">
-      <c r="D8" s="18" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="17">
-      <c r="D9" s="18" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="17">
-      <c r="A10" s="20" t="n"/>
-      <c r="B10" s="20" t="n"/>
-      <c r="C10" s="20" t="n"/>
-      <c r="D10" s="20" t="n"/>
-      <c r="E10" s="20" t="n"/>
-      <c r="F10" s="20" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="17">
-      <c r="A11" s="20" t="n"/>
-      <c r="B11" s="20" t="n"/>
-      <c r="C11" s="20" t="n"/>
-      <c r="D11" s="20" t="n"/>
-      <c r="E11" s="20" t="n"/>
-      <c r="F11" s="20" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="17">
-      <c r="A12" s="21" t="n"/>
-      <c r="B12" s="21" t="n"/>
-      <c r="C12" s="20" t="n"/>
-      <c r="D12" s="20" t="n"/>
-      <c r="E12" s="20" t="n"/>
-      <c r="F12" s="20" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="17">
-      <c r="A13" s="16" t="n"/>
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="20" t="n"/>
-      <c r="D13" s="20" t="n"/>
-      <c r="E13" s="20" t="n"/>
-      <c r="F13" s="20" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="17">
-      <c r="A14" s="15" t="n"/>
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="20" t="n"/>
-      <c r="D14" s="20" t="n"/>
-      <c r="E14" s="20" t="n"/>
-      <c r="F14" s="20" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="17">
-      <c r="A15" s="20" t="n"/>
-      <c r="B15" s="20" t="n"/>
-      <c r="C15" s="20" t="n"/>
-      <c r="D15" s="20" t="n"/>
-      <c r="E15" s="20" t="n"/>
-      <c r="F15" s="20" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="17">
-      <c r="A16" s="20" t="n"/>
-      <c r="B16" s="20" t="n"/>
-      <c r="C16" s="20" t="n"/>
-      <c r="D16" s="20" t="n"/>
-      <c r="E16" s="20" t="n"/>
-      <c r="F16" s="20" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="17">
-      <c r="A17" s="20" t="n"/>
-      <c r="B17" s="20" t="n"/>
-      <c r="C17" s="20" t="n"/>
-      <c r="D17" s="20" t="n"/>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="20" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="17">
-      <c r="A18" s="20" t="n"/>
-      <c r="B18" s="20" t="n"/>
-      <c r="C18" s="20" t="n"/>
-      <c r="D18" s="20" t="n"/>
-      <c r="E18" s="20" t="n"/>
-      <c r="F18" s="20" t="n"/>
+      <c r="C5" s="28">
+        <v>10272256.470000001</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="13.7109375" customWidth="1" style="7" min="1" max="3"/>
-    <col width="11.42578125" customWidth="1" style="7" min="4" max="16384"/>
+    <col min="1" max="3" width="13.7109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="17">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>2. Personas visitantes y recaudación en los casinos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="17">
-      <c r="A2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="17">
-      <c r="A3" s="22" t="n"/>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Visitantes</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="inlineStr">
-        <is>
-          <t>Recaudación</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="17">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="1" spans="1:5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>221138</v>
       </c>
-      <c r="C4" s="16" t="n">
-        <v>22045786.53</v>
-      </c>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="12" customHeight="1" s="17">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Nota: Los datos de recaudación expresados en euros.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1" s="17">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Fuente: Subdirección General de Juego. Conselleria de Hacienda y Modelo Económico.</t>
-        </is>
+      <c r="C4" s="6">
+        <v>22045786.530000001</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.7109375" customWidth="1" style="17" min="1" max="1"/>
-    <col width="18.7109375" customWidth="1" style="17" min="2" max="3"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="17">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>3. Número de máquinas recreativas e importe recaudado por la tasa fiscal. 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="17"/>
-    <row r="3" ht="18.75" customHeight="1" s="17">
-      <c r="A3" s="22" t="n"/>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Número de máquinas</t>
-        </is>
-      </c>
-      <c r="C3" s="23" t="inlineStr">
-        <is>
-          <t>Importe tasa fiscal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="17">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
         <v>5391</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="12">
         <v>20851381</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="17">
-      <c r="A5" s="24" t="inlineStr">
-        <is>
-          <t>Tipo B o de premio programado</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="25">
         <v>5331</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="25">
         <v>20386940</v>
       </c>
-      <c r="D5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="17">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Tipo C o de azar</t>
-        </is>
-      </c>
-      <c r="B6" s="16" t="n">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
         <v>60</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="6">
         <v>464441</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="17">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>Nota: Los datos de importe de la tasa fiscal expresados en euros.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="17">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Fuente: Agencia Tributaria Valenciana (ATV).</t>
-        </is>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>